--- a/people.xlsx
+++ b/people.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
@@ -1548,6 +1548,26 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Srikar</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>21</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Not Subscribed</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Employed</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
